--- a/reports/figures/edacorr.xlsx
+++ b/reports/figures/edacorr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asadsabir/Documents/GitHub/World Bank Gini Index/reports/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{721825D1-FAC0-0D4C-9C38-4FFDC12D5FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{08EDADC8-C9E7-EC46-8350-CEE38C96E15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15940"/>
   </bookViews>
@@ -940,12 +940,13 @@
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.6640625" customWidth="1"/>
+    <col min="1" max="1" width="65.83203125" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
@@ -2887,5 +2888,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/reports/figures/edacorr.xlsx
+++ b/reports/figures/edacorr.xlsx
@@ -1,48 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
-  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asadsabir/Documents/GitHub/World Bank Gini Index/reports/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{08EDADC8-C9E7-EC46-8350-CEE38C96E15A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EF78EF4F-F1F1-904B-9C5F-C3F3565C37B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15940"/>
+    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="edacorr" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="48" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="24">
   <si>
     <t>Year</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed lower secondary, population 25+, total (%) (cumulative)</t>
+    <t>EA, at least completed lower secondary</t>
   </si>
   <si>
-    <t>Educational attainment, Doctoral or equivalent, population 25+, total (%) (cumulative)</t>
+    <t>EA, Doctoral or equivalent</t>
   </si>
   <si>
-    <t>Poverty headcount ratio at $3.65 a day (2017 PPP) (% of population)</t>
+    <t>Poverty headcount ratio at $3.65</t>
   </si>
   <si>
-    <t>Inflation, consumer prices (annual %)</t>
+    <t>Inflation</t>
   </si>
   <si>
-    <t>Poverty headcount ratio at $6.85 a day (2017 PPP) (% of population)</t>
+    <t>Poverty headcount ratio at $6.85</t>
   </si>
   <si>
     <t>Gini index</t>
@@ -51,22 +46,22 @@
     <t>GDP (current US$)</t>
   </si>
   <si>
-    <t>Poverty gap at $2.15 a day (2017 PPP) (%)</t>
+    <t>Poverty gap at $2.15</t>
   </si>
   <si>
-    <t>Poverty gap at $3.65 a day (2017 PPP) (%)</t>
+    <t>Poverty gap at $3.65</t>
   </si>
   <si>
-    <t>Cause of death, by injury (% of total)</t>
+    <t>COD, by injury</t>
   </si>
   <si>
-    <t>Educational attainment, at least Master's or equivalent, population 25+, total (%) (cumulative)</t>
+    <t>EA, at least Master's or equivalent</t>
   </si>
   <si>
-    <t>Poverty headcount ratio at $2.15 a day (2017 PPP) (% of population)</t>
+    <t>Poverty headcount ratio at $2.15</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed short-cycle tertiary, population 25+, total (%) (cumulative)</t>
+    <t>EA, at least completed short-cycle tertiary</t>
   </si>
   <si>
     <t>Population, total</t>
@@ -75,25 +70,25 @@
     <t>Population ages 65 and above (% of total population)</t>
   </si>
   <si>
-    <t>Cause of death, by non-communicable diseases (% of total)</t>
+    <t>COD, by non-communicable diseases</t>
   </si>
   <si>
-    <t>Unemployment, total (% of total labor force) (modeled ILO estimate)</t>
+    <t>Unemployment</t>
   </si>
   <si>
-    <t>Poverty gap at $6.85 a day (2017 PPP) (%)</t>
+    <t>Poverty gap at $6.85</t>
   </si>
   <si>
     <t>Hospital beds (per 1,000 people)</t>
   </si>
   <si>
-    <t>Life expectancy at birth, total (years)</t>
+    <t>Life expectancy</t>
   </si>
   <si>
     <t>Physicians (per 1,000 people)</t>
   </si>
   <si>
-    <t>Educational attainment, at least completed primary, population 25+ years, total (%) (cumulative)</t>
+    <t>EA, at least completed primary</t>
   </si>
   <si>
     <t>GDP per capita</t>
@@ -102,26 +97,26 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Aptos Display"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -129,7 +124,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -137,7 +132,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -145,35 +140,35 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -181,7 +176,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -189,14 +184,14 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -204,14 +199,14 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -219,7 +214,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -227,14 +222,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -422,15 +417,15 @@
   </fills>
   <borders count="10">
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
         <color theme="4"/>
@@ -438,8 +433,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
@@ -447,8 +442,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.39997558519241921"/>
@@ -456,12 +451,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FF7F7F7F"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FF7F7F7F"/>
       </top>
@@ -471,12 +466,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -486,8 +481,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -495,12 +490,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="double">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </start>
-      <end style="double">
+      </left>
+      <right style="double">
         <color rgb="FF3F3F3F"/>
-      </end>
+      </right>
       <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -510,12 +505,12 @@
       <diagonal/>
     </border>
     <border>
-      <start style="thin">
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
-      </start>
-      <end style="thin">
+      </left>
+      <right style="thin">
         <color rgb="FFB2B2B2"/>
-      </end>
+      </right>
       <top style="thin">
         <color rgb="FFB2B2B2"/>
       </top>
@@ -525,8 +520,8 @@
       <diagonal/>
     </border>
     <border>
-      <start/>
-      <end/>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -641,7 +636,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -651,39 +646,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -735,7 +730,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -794,25 +789,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110%"/>
-                <a:satMod val="105%"/>
-                <a:tint val="67%"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="103%"/>
-                <a:tint val="73%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105%"/>
-                <a:satMod val="109%"/>
-                <a:tint val="81%"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -820,25 +815,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103%"/>
-                <a:lumMod val="102%"/>
-                <a:tint val="94%"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110%"/>
-                <a:lumMod val="100%"/>
-                <a:shade val="100%"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99%"/>
-                <a:satMod val="120%"/>
-                <a:shade val="78%"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -846,26 +841,26 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800%"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -879,7 +874,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63%"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -891,32 +886,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95%"/>
-            <a:satMod val="170%"/>
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0%">
+            <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93%"/>
-                <a:satMod val="150%"/>
-                <a:shade val="98%"/>
-                <a:lumMod val="102%"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50%">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="98%"/>
-                <a:satMod val="130%"/>
-                <a:shade val="90%"/>
-                <a:lumMod val="103%"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100%">
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63%"/>
-                <a:satMod val="120%"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -925,28 +920,47 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65.83203125" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="42.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
@@ -1028,76 +1042,76 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>-4.9347541269910797E-2</v>
+        <v>-0.05</v>
       </c>
       <c r="C2">
-        <v>-0.61952457365500901</v>
+        <v>-0.62</v>
       </c>
       <c r="D2">
-        <v>-0.37820149579045798</v>
+        <v>-0.38</v>
       </c>
       <c r="E2">
-        <v>0.26319850216877599</v>
+        <v>0.26</v>
       </c>
       <c r="F2">
-        <v>0.20066457612268199</v>
+        <v>0.2</v>
       </c>
       <c r="G2">
-        <v>0.33002784047334399</v>
+        <v>0.33</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>7.5397000549526402E-2</v>
+        <v>0.08</v>
       </c>
       <c r="J2">
-        <v>0.25309025400414298</v>
+        <v>0.25</v>
       </c>
       <c r="K2">
-        <v>0.26617144069366899</v>
+        <v>0.27</v>
       </c>
       <c r="L2">
-        <v>0.50945748190177598</v>
+        <v>0.51</v>
       </c>
       <c r="M2">
-        <v>-0.45554006806391401</v>
+        <v>-0.46</v>
       </c>
       <c r="N2">
-        <v>0.25167946286790499</v>
+        <v>0.25</v>
       </c>
       <c r="O2">
-        <v>-0.32004116466374799</v>
+        <v>-0.32</v>
       </c>
       <c r="P2">
-        <v>0.23784337625984001</v>
+        <v>0.24</v>
       </c>
       <c r="Q2">
-        <v>-0.585679834940523</v>
+        <v>-0.59</v>
       </c>
       <c r="R2">
-        <v>-0.47860949528805302</v>
+        <v>-0.48</v>
       </c>
       <c r="S2">
-        <v>4.4522607566814497E-2</v>
+        <v>0.04</v>
       </c>
       <c r="T2">
-        <v>0.29881491308327401</v>
+        <v>0.3</v>
       </c>
       <c r="U2">
-        <v>-0.59218489912085304</v>
+        <v>-0.59</v>
       </c>
       <c r="V2">
-        <v>-0.35698087715946197</v>
+        <v>-0.36</v>
       </c>
       <c r="W2">
-        <v>-0.43227905556201701</v>
+        <v>-0.43</v>
       </c>
       <c r="X2">
-        <v>-0.52140774336281703</v>
+        <v>-0.52</v>
       </c>
       <c r="Y2">
-        <v>-0.405686684533208</v>
+        <v>-0.41</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.2">
@@ -1105,76 +1119,76 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>-0.15782522743161401</v>
+        <v>-0.16</v>
       </c>
       <c r="C3">
-        <v>-0.48876952340738999</v>
+        <v>-0.49</v>
       </c>
       <c r="D3">
-        <v>-0.24603471765416801</v>
+        <v>-0.25</v>
       </c>
       <c r="E3">
-        <v>0.22402487834338999</v>
+        <v>0.22</v>
       </c>
       <c r="F3">
-        <v>0.205158975427155</v>
+        <v>0.21</v>
       </c>
       <c r="G3">
-        <v>0.32766978990319601</v>
+        <v>0.33</v>
       </c>
       <c r="H3">
-        <v>0.50945748190177598</v>
+        <v>0.51</v>
       </c>
       <c r="I3">
-        <v>-6.5802183404096007E-2</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="J3">
-        <v>0.12117781230923801</v>
+        <v>0.12</v>
       </c>
       <c r="K3">
-        <v>0.182904718521534</v>
+        <v>0.18</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>-0.380627370092192</v>
+        <v>-0.38</v>
       </c>
       <c r="N3">
-        <v>0.16174287233312801</v>
+        <v>0.16</v>
       </c>
       <c r="O3">
-        <v>-0.27880829724711298</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="P3">
-        <v>2.66772796460749E-2</v>
+        <v>0.03</v>
       </c>
       <c r="Q3">
-        <v>-0.67392895873879799</v>
+        <v>-0.67</v>
       </c>
       <c r="R3">
-        <v>-0.65131533009572595</v>
+        <v>-0.65</v>
       </c>
       <c r="S3">
-        <v>-0.32924288850392902</v>
+        <v>-0.33</v>
       </c>
       <c r="T3">
-        <v>0.26800084319901402</v>
+        <v>0.27</v>
       </c>
       <c r="U3">
-        <v>-0.37595865021394198</v>
+        <v>-0.38</v>
       </c>
       <c r="V3">
-        <v>-0.413621832519661</v>
+        <v>-0.41</v>
       </c>
       <c r="W3">
-        <v>-0.481332843589097</v>
+        <v>-0.48</v>
       </c>
       <c r="X3">
-        <v>-0.57299241119083499</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="Y3">
-        <v>-0.30486649614506101</v>
+        <v>-0.3</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.2">
@@ -1182,76 +1196,76 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.27712577688396101</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="C4">
-        <v>-0.54990538185721705</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="D4">
-        <v>-0.47922548309854401</v>
+        <v>-0.48</v>
       </c>
       <c r="E4">
-        <v>0.91294303568573698</v>
+        <v>0.91</v>
       </c>
       <c r="F4">
-        <v>0.40239595986063098</v>
+        <v>0.4</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>0.33002784047334399</v>
+        <v>0.33</v>
       </c>
       <c r="I4">
-        <v>-0.147138024756055</v>
+        <v>-0.15</v>
       </c>
       <c r="J4">
-        <v>0.53288118148430796</v>
+        <v>0.53</v>
       </c>
       <c r="K4">
-        <v>0.77211860052162296</v>
+        <v>0.77</v>
       </c>
       <c r="L4">
-        <v>0.32766978990319601</v>
+        <v>0.33</v>
       </c>
       <c r="M4">
-        <v>-0.28670139779627002</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="N4">
-        <v>0.65980240421961001</v>
+        <v>0.66</v>
       </c>
       <c r="O4">
-        <v>-0.53308293905283299</v>
+        <v>-0.53</v>
       </c>
       <c r="P4">
-        <v>0.306977351953519</v>
+        <v>0.31</v>
       </c>
       <c r="Q4">
-        <v>-0.65502987263408696</v>
+        <v>-0.66</v>
       </c>
       <c r="R4">
-        <v>-0.669523198834863</v>
+        <v>-0.67</v>
       </c>
       <c r="S4">
-        <v>-8.2705660454160806E-2</v>
+        <v>-0.08</v>
       </c>
       <c r="T4">
-        <v>0.96107644815408899</v>
+        <v>0.96</v>
       </c>
       <c r="U4">
-        <v>-0.43158579569746103</v>
+        <v>-0.43</v>
       </c>
       <c r="V4">
-        <v>-0.80576636133502899</v>
+        <v>-0.81</v>
       </c>
       <c r="W4">
-        <v>-0.52772866596680901</v>
+        <v>-0.53</v>
       </c>
       <c r="X4">
-        <v>-0.66585485228730501</v>
+        <v>-0.67</v>
       </c>
       <c r="Y4">
-        <v>-0.56965700276600595</v>
+        <v>-0.56999999999999995</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.2">
@@ -1259,76 +1273,76 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>-0.25525262899965701</v>
+        <v>-0.26</v>
       </c>
       <c r="C5">
-        <v>-0.57067837700803703</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="D5">
-        <v>-0.40349213561233599</v>
+        <v>-0.4</v>
       </c>
       <c r="E5">
-        <v>0.98902615639628999</v>
+        <v>0.99</v>
       </c>
       <c r="F5">
-        <v>0.31303996031525899</v>
+        <v>0.31</v>
       </c>
       <c r="G5">
-        <v>0.96107644815408899</v>
+        <v>0.96</v>
       </c>
       <c r="H5">
-        <v>0.29881491308327401</v>
+        <v>0.3</v>
       </c>
       <c r="I5">
-        <v>-0.120149451631616</v>
+        <v>-0.12</v>
       </c>
       <c r="J5">
-        <v>0.71673084244922103</v>
+        <v>0.72</v>
       </c>
       <c r="K5">
-        <v>0.912405899227138</v>
+        <v>0.91</v>
       </c>
       <c r="L5">
-        <v>0.26800084319901402</v>
+        <v>0.27</v>
       </c>
       <c r="M5">
-        <v>-0.26844614383146498</v>
+        <v>-0.27</v>
       </c>
       <c r="N5">
-        <v>0.82858796067563201</v>
+        <v>0.83</v>
       </c>
       <c r="O5">
-        <v>-0.51904348835296199</v>
+        <v>-0.52</v>
       </c>
       <c r="P5">
-        <v>0.29199748127809999</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Q5">
-        <v>-0.59376509985489401</v>
+        <v>-0.59</v>
       </c>
       <c r="R5">
-        <v>-0.73070909496857595</v>
+        <v>-0.73</v>
       </c>
       <c r="S5">
-        <v>-8.7015906615715094E-2</v>
+        <v>-0.09</v>
       </c>
       <c r="T5">
         <v>1</v>
       </c>
       <c r="U5">
-        <v>-0.42378188948332601</v>
+        <v>-0.42</v>
       </c>
       <c r="V5">
-        <v>-0.76741682491556495</v>
+        <v>-0.77</v>
       </c>
       <c r="W5">
-        <v>-0.514392273414498</v>
+        <v>-0.51</v>
       </c>
       <c r="X5">
-        <v>-0.71160420351439502</v>
+        <v>-0.71</v>
       </c>
       <c r="Y5">
-        <v>-0.49022778421915802</v>
+        <v>-0.49</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.2">
@@ -1336,76 +1350,76 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.199589532387555</v>
+        <v>-0.2</v>
       </c>
       <c r="C6">
-        <v>-0.52828687743247704</v>
+        <v>-0.53</v>
       </c>
       <c r="D6">
-        <v>-0.28171643299473897</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="E6">
-        <v>0.94729025576113302</v>
+        <v>0.95</v>
       </c>
       <c r="F6">
-        <v>0.149359064756931</v>
+        <v>0.15</v>
       </c>
       <c r="G6">
-        <v>0.77211860052162296</v>
+        <v>0.77</v>
       </c>
       <c r="H6">
-        <v>0.26617144069366899</v>
+        <v>0.27</v>
       </c>
       <c r="I6">
-        <v>-7.96574683571174E-2</v>
+        <v>-0.08</v>
       </c>
       <c r="J6">
-        <v>0.92791392259000904</v>
+        <v>0.93</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.182904718521534</v>
+        <v>0.18</v>
       </c>
       <c r="M6">
-        <v>-0.23769977857726099</v>
+        <v>-0.24</v>
       </c>
       <c r="N6">
-        <v>0.98306315901875696</v>
+        <v>0.98</v>
       </c>
       <c r="O6">
-        <v>-0.43453320767760101</v>
+        <v>-0.43</v>
       </c>
       <c r="P6">
-        <v>0.17837805022068901</v>
+        <v>0.18</v>
       </c>
       <c r="Q6">
-        <v>-0.447008339855411</v>
+        <v>-0.45</v>
       </c>
       <c r="R6">
-        <v>-0.71832064713045896</v>
+        <v>-0.72</v>
       </c>
       <c r="S6">
-        <v>-5.4143122871905897E-2</v>
+        <v>-0.05</v>
       </c>
       <c r="T6">
-        <v>0.912405899227138</v>
+        <v>0.91</v>
       </c>
       <c r="U6">
-        <v>-0.351018362086221</v>
+        <v>-0.35</v>
       </c>
       <c r="V6">
-        <v>-0.64243870915129797</v>
+        <v>-0.64</v>
       </c>
       <c r="W6">
-        <v>-0.43393887444574902</v>
+        <v>-0.43</v>
       </c>
       <c r="X6">
-        <v>-0.68591738443817596</v>
+        <v>-0.69</v>
       </c>
       <c r="Y6">
-        <v>-0.352610392275859</v>
+        <v>-0.35</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.2">
@@ -1413,76 +1427,76 @@
         <v>3</v>
       </c>
       <c r="B7">
-        <v>-0.23346763274091201</v>
+        <v>-0.23</v>
       </c>
       <c r="C7">
-        <v>-0.56828337711872201</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="D7">
-        <v>-0.34827918121590601</v>
+        <v>-0.35</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>0.26167595389220599</v>
+        <v>0.26</v>
       </c>
       <c r="G7">
-        <v>0.91294303568573698</v>
+        <v>0.91</v>
       </c>
       <c r="H7">
-        <v>0.26319850216877599</v>
+        <v>0.26</v>
       </c>
       <c r="I7">
-        <v>-0.103566804137584</v>
+        <v>-0.1</v>
       </c>
       <c r="J7">
-        <v>0.76455586156468403</v>
+        <v>0.76</v>
       </c>
       <c r="K7">
-        <v>0.94729025576113302</v>
+        <v>0.95</v>
       </c>
       <c r="L7">
-        <v>0.22402487834338999</v>
+        <v>0.22</v>
       </c>
       <c r="M7">
-        <v>-0.25404281364226</v>
+        <v>-0.25</v>
       </c>
       <c r="N7">
-        <v>0.87540134321401197</v>
+        <v>0.88</v>
       </c>
       <c r="O7">
-        <v>-0.49736554963780899</v>
+        <v>-0.5</v>
       </c>
       <c r="P7">
-        <v>0.29232628019984402</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="Q7">
-        <v>-0.54495032902343099</v>
+        <v>-0.54</v>
       </c>
       <c r="R7">
-        <v>-0.74047525796109404</v>
+        <v>-0.74</v>
       </c>
       <c r="S7">
-        <v>-9.5349322337099404E-2</v>
+        <v>-0.1</v>
       </c>
       <c r="T7">
-        <v>0.98902615639628999</v>
+        <v>0.99</v>
       </c>
       <c r="U7">
-        <v>-0.41147588842621202</v>
+        <v>-0.41</v>
       </c>
       <c r="V7">
-        <v>-0.71967848203291696</v>
+        <v>-0.72</v>
       </c>
       <c r="W7">
-        <v>-0.495386512768903</v>
+        <v>-0.5</v>
       </c>
       <c r="X7">
-        <v>-0.71496911101835303</v>
+        <v>-0.71</v>
       </c>
       <c r="Y7">
-        <v>-0.43119049252530101</v>
+        <v>-0.43</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.2">
@@ -1490,76 +1504,76 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>-0.14203849835137899</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="C8">
-        <v>-0.411131520020942</v>
+        <v>-0.41</v>
       </c>
       <c r="D8">
-        <v>-0.187538908103275</v>
+        <v>-0.19</v>
       </c>
       <c r="E8">
-        <v>0.76455586156468403</v>
+        <v>0.76</v>
       </c>
       <c r="F8">
-        <v>1.8002465071484099E-2</v>
+        <v>0.02</v>
       </c>
       <c r="G8">
-        <v>0.53288118148430796</v>
+        <v>0.53</v>
       </c>
       <c r="H8">
-        <v>0.25309025400414298</v>
+        <v>0.25</v>
       </c>
       <c r="I8">
-        <v>-4.1839928266455197E-2</v>
+        <v>-0.04</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8">
-        <v>0.92791392259000904</v>
+        <v>0.93</v>
       </c>
       <c r="L8">
-        <v>0.12117781230923801</v>
+        <v>0.12</v>
       </c>
       <c r="M8">
-        <v>-0.19051915749242901</v>
+        <v>-0.19</v>
       </c>
       <c r="N8">
-        <v>0.97079435316409102</v>
+        <v>0.97</v>
       </c>
       <c r="O8">
-        <v>-0.31366328206570998</v>
+        <v>-0.31</v>
       </c>
       <c r="P8">
-        <v>2.4059544597020199E-2</v>
+        <v>0.02</v>
       </c>
       <c r="Q8">
-        <v>-0.28835565341112102</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="R8">
-        <v>-0.59484069511568105</v>
+        <v>-0.59</v>
       </c>
       <c r="S8">
-        <v>1.47209401036692E-2</v>
+        <v>0.01</v>
       </c>
       <c r="T8">
-        <v>0.71673084244922103</v>
+        <v>0.72</v>
       </c>
       <c r="U8">
-        <v>-0.237095252947398</v>
+        <v>-0.24</v>
       </c>
       <c r="V8">
-        <v>-0.49308347359423998</v>
+        <v>-0.49</v>
       </c>
       <c r="W8">
-        <v>-0.30878361346556599</v>
+        <v>-0.31</v>
       </c>
       <c r="X8">
-        <v>-0.56205603049834896</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="Y8">
-        <v>-0.23823652925589001</v>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.2">
@@ -1567,76 +1581,76 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.17705433013005401</v>
+        <v>-0.18</v>
       </c>
       <c r="C9">
-        <v>-0.48435291511367101</v>
+        <v>-0.48</v>
       </c>
       <c r="D9">
-        <v>-0.23327237611771301</v>
+        <v>-0.23</v>
       </c>
       <c r="E9">
-        <v>0.87540134321401197</v>
+        <v>0.88</v>
       </c>
       <c r="F9">
-        <v>7.8468595051507703E-2</v>
+        <v>0.08</v>
       </c>
       <c r="G9">
-        <v>0.65980240421961001</v>
+        <v>0.66</v>
       </c>
       <c r="H9">
-        <v>0.25167946286790499</v>
+        <v>0.25</v>
       </c>
       <c r="I9">
-        <v>-6.8983929113937595E-2</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="J9">
-        <v>0.97079435316409102</v>
+        <v>0.97</v>
       </c>
       <c r="K9">
-        <v>0.98306315901875696</v>
+        <v>0.98</v>
       </c>
       <c r="L9">
-        <v>0.16174287233312801</v>
+        <v>0.16</v>
       </c>
       <c r="M9">
-        <v>-0.21270759086624599</v>
+        <v>-0.21</v>
       </c>
       <c r="N9">
         <v>1</v>
       </c>
       <c r="O9">
-        <v>-0.37911464023036201</v>
+        <v>-0.38</v>
       </c>
       <c r="P9">
-        <v>9.7736159125406105E-2</v>
+        <v>0.1</v>
       </c>
       <c r="Q9">
-        <v>-0.37876968234668801</v>
+        <v>-0.38</v>
       </c>
       <c r="R9">
-        <v>-0.67880590059521195</v>
+        <v>-0.68</v>
       </c>
       <c r="S9">
-        <v>-3.7077451486761899E-2</v>
+        <v>-0.04</v>
       </c>
       <c r="T9">
-        <v>0.82858796067563201</v>
+        <v>0.83</v>
       </c>
       <c r="U9">
-        <v>-0.30215262492421202</v>
+        <v>-0.3</v>
       </c>
       <c r="V9">
-        <v>-0.56943527986745701</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="W9">
-        <v>-0.37844822248802901</v>
+        <v>-0.38</v>
       </c>
       <c r="X9">
-        <v>-0.64194198863209095</v>
+        <v>-0.64</v>
       </c>
       <c r="Y9">
-        <v>-0.29276015667306798</v>
+        <v>-0.28999999999999998</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.2">
@@ -1644,76 +1658,76 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>0.12969667367384499</v>
+        <v>0.13</v>
       </c>
       <c r="C10">
-        <v>-0.233595941390323</v>
+        <v>-0.23</v>
       </c>
       <c r="D10">
-        <v>8.7269423987818495E-4</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>0.29232628019984402</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F10">
-        <v>0.174228812777383</v>
+        <v>0.17</v>
       </c>
       <c r="G10">
-        <v>0.306977351953519</v>
+        <v>0.31</v>
       </c>
       <c r="H10">
-        <v>0.23784337625984001</v>
+        <v>0.24</v>
       </c>
       <c r="I10">
-        <v>0.64531413957589001</v>
+        <v>0.65</v>
       </c>
       <c r="J10">
-        <v>2.4059544597020199E-2</v>
+        <v>0.02</v>
       </c>
       <c r="K10">
-        <v>0.17837805022068901</v>
+        <v>0.18</v>
       </c>
       <c r="L10">
-        <v>2.66772796460749E-2</v>
+        <v>0.03</v>
       </c>
       <c r="M10">
-        <v>-0.24989733778723699</v>
+        <v>-0.25</v>
       </c>
       <c r="N10">
-        <v>9.7736159125406105E-2</v>
+        <v>0.1</v>
       </c>
       <c r="O10">
-        <v>-0.131903353631841</v>
+        <v>-0.13</v>
       </c>
       <c r="P10">
         <v>1</v>
       </c>
       <c r="Q10">
-        <v>-0.22980563937635901</v>
+        <v>-0.23</v>
       </c>
       <c r="R10">
-        <v>-0.22182179909495001</v>
+        <v>-0.22</v>
       </c>
       <c r="S10">
-        <v>-0.15293706327036699</v>
+        <v>-0.15</v>
       </c>
       <c r="T10">
-        <v>0.29199748127809999</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="U10">
-        <v>-0.24868071554201099</v>
+        <v>-0.25</v>
       </c>
       <c r="V10">
-        <v>-0.19499010646734899</v>
+        <v>-0.19</v>
       </c>
       <c r="W10">
-        <v>-0.32966628554959498</v>
+        <v>-0.33</v>
       </c>
       <c r="X10">
-        <v>-0.198607464874034</v>
+        <v>-0.2</v>
       </c>
       <c r="Y10">
-        <v>-9.6876099324125897E-3</v>
+        <v>-0.01</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.2">
@@ -1721,76 +1735,76 @@
         <v>4</v>
       </c>
       <c r="B11">
-        <v>-0.27943313472843601</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="C11">
-        <v>-0.25852588534544502</v>
+        <v>-0.26</v>
       </c>
       <c r="D11">
-        <v>-0.34643597211072302</v>
+        <v>-0.35</v>
       </c>
       <c r="E11">
-        <v>0.26167595389220599</v>
+        <v>0.26</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.40239595986063098</v>
+        <v>0.4</v>
       </c>
       <c r="H11">
-        <v>0.20066457612268199</v>
+        <v>0.2</v>
       </c>
       <c r="I11">
-        <v>-7.5582764406366104E-2</v>
+        <v>-0.08</v>
       </c>
       <c r="J11">
-        <v>1.8002465071484099E-2</v>
+        <v>0.02</v>
       </c>
       <c r="K11">
-        <v>0.149359064756931</v>
+        <v>0.15</v>
       </c>
       <c r="L11">
-        <v>0.205158975427155</v>
+        <v>0.21</v>
       </c>
       <c r="M11">
-        <v>-0.31594994230553602</v>
+        <v>-0.32</v>
       </c>
       <c r="N11">
-        <v>7.8468595051507703E-2</v>
+        <v>0.08</v>
       </c>
       <c r="O11">
-        <v>-0.27511299653442101</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="P11">
-        <v>0.174228812777383</v>
+        <v>0.17</v>
       </c>
       <c r="Q11">
-        <v>-0.46192462403573797</v>
+        <v>-0.46</v>
       </c>
       <c r="R11">
-        <v>-0.22932885687519999</v>
+        <v>-0.23</v>
       </c>
       <c r="S11">
-        <v>-0.16940659132615199</v>
+        <v>-0.17</v>
       </c>
       <c r="T11">
-        <v>0.31303996031525899</v>
+        <v>0.31</v>
       </c>
       <c r="U11">
-        <v>-0.14286651858681901</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="V11">
-        <v>-0.45822971705104498</v>
+        <v>-0.46</v>
       </c>
       <c r="W11">
-        <v>-0.31830840319736697</v>
+        <v>-0.32</v>
       </c>
       <c r="X11">
-        <v>-0.24534566003244801</v>
+        <v>-0.25</v>
       </c>
       <c r="Y11">
-        <v>-0.36178491952368802</v>
+        <v>-0.36</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.2">
@@ -1798,76 +1812,76 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>0.14799833464203199</v>
+        <v>0.15</v>
       </c>
       <c r="C12">
-        <v>0.154106131983795</v>
+        <v>0.15</v>
       </c>
       <c r="D12">
-        <v>0.321107738430778</v>
+        <v>0.32</v>
       </c>
       <c r="E12">
-        <v>-0.103566804137584</v>
+        <v>-0.1</v>
       </c>
       <c r="F12">
-        <v>-7.5582764406366104E-2</v>
+        <v>-0.08</v>
       </c>
       <c r="G12">
-        <v>-0.147138024756055</v>
+        <v>-0.15</v>
       </c>
       <c r="H12">
-        <v>7.5397000549526402E-2</v>
+        <v>0.08</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>-4.1839928266455197E-2</v>
+        <v>-0.04</v>
       </c>
       <c r="K12">
-        <v>-7.96574683571174E-2</v>
+        <v>-0.08</v>
       </c>
       <c r="L12">
-        <v>-6.5802183404096007E-2</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="M12">
-        <v>6.9107396346602901E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N12">
-        <v>-6.8983929113937595E-2</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="O12">
-        <v>0.28532576281183097</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="P12">
-        <v>0.64531413957589001</v>
+        <v>0.65</v>
       </c>
       <c r="Q12">
-        <v>0.116812814576487</v>
+        <v>0.12</v>
       </c>
       <c r="R12">
-        <v>9.1437267544194706E-2</v>
+        <v>0.09</v>
       </c>
       <c r="S12">
-        <v>-9.2150603706679601E-2</v>
+        <v>-0.09</v>
       </c>
       <c r="T12">
-        <v>-0.120149451631616</v>
+        <v>-0.12</v>
       </c>
       <c r="U12">
-        <v>-8.3244842872646999E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="V12">
-        <v>0.147346554937308</v>
+        <v>0.15</v>
       </c>
       <c r="W12">
-        <v>8.8929007369779305E-3</v>
+        <v>0.01</v>
       </c>
       <c r="X12">
-        <v>0.126102659089673</v>
+        <v>0.13</v>
       </c>
       <c r="Y12">
-        <v>0.33828748955528798</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.2">
@@ -1875,76 +1889,76 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>-5.2050331473304602E-2</v>
+        <v>-0.05</v>
       </c>
       <c r="C13">
-        <v>7.3174070735967198E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D13">
-        <v>-8.62667307851748E-2</v>
+        <v>-0.09</v>
       </c>
       <c r="E13">
-        <v>-9.5349322337099404E-2</v>
+        <v>-0.1</v>
       </c>
       <c r="F13">
-        <v>-0.16940659132615199</v>
+        <v>-0.17</v>
       </c>
       <c r="G13">
-        <v>-8.2705660454160806E-2</v>
+        <v>-0.08</v>
       </c>
       <c r="H13">
-        <v>4.4522607566814497E-2</v>
+        <v>0.04</v>
       </c>
       <c r="I13">
-        <v>-9.2150603706679601E-2</v>
+        <v>-0.09</v>
       </c>
       <c r="J13">
-        <v>1.47209401036692E-2</v>
+        <v>0.01</v>
       </c>
       <c r="K13">
-        <v>-5.4143122871905897E-2</v>
+        <v>-0.05</v>
       </c>
       <c r="L13">
-        <v>-0.32924288850392902</v>
+        <v>-0.33</v>
       </c>
       <c r="M13">
-        <v>0.136080013837452</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="N13">
-        <v>-3.7077451486761899E-2</v>
+        <v>-0.04</v>
       </c>
       <c r="O13">
-        <v>-3.2001356095805E-3</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>-0.15293706327036699</v>
+        <v>-0.15</v>
       </c>
       <c r="Q13">
-        <v>0.32494249100953698</v>
+        <v>0.32</v>
       </c>
       <c r="R13">
-        <v>0.36916136110221698</v>
+        <v>0.37</v>
       </c>
       <c r="S13">
         <v>1</v>
       </c>
       <c r="T13">
-        <v>-8.7015906615715094E-2</v>
+        <v>-0.09</v>
       </c>
       <c r="U13">
-        <v>8.0286744874862898E-2</v>
+        <v>0.08</v>
       </c>
       <c r="V13">
-        <v>0.20025382489420801</v>
+        <v>0.2</v>
       </c>
       <c r="W13">
-        <v>0.41482088054599697</v>
+        <v>0.41</v>
       </c>
       <c r="X13">
-        <v>0.22272432913929499</v>
+        <v>0.22</v>
       </c>
       <c r="Y13">
-        <v>-0.149646157071536</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.2">
@@ -1955,73 +1969,73 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>9.9561851946755098E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D14">
-        <v>0.16702493822662301</v>
+        <v>0.17</v>
       </c>
       <c r="E14">
-        <v>-0.23346763274091201</v>
+        <v>-0.23</v>
       </c>
       <c r="F14">
-        <v>-0.27943313472843601</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="G14">
-        <v>-0.27712577688396101</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="H14">
-        <v>-4.9347541269910797E-2</v>
+        <v>-0.05</v>
       </c>
       <c r="I14">
-        <v>0.14799833464203199</v>
+        <v>0.15</v>
       </c>
       <c r="J14">
-        <v>-0.14203849835137899</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="K14">
-        <v>-0.199589532387555</v>
+        <v>-0.2</v>
       </c>
       <c r="L14">
-        <v>-0.15782522743161401</v>
+        <v>-0.16</v>
       </c>
       <c r="M14">
-        <v>6.9420236770968799E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="N14">
-        <v>-0.17705433013005401</v>
+        <v>-0.18</v>
       </c>
       <c r="O14">
-        <v>0.20854415123223999</v>
+        <v>0.21</v>
       </c>
       <c r="P14">
-        <v>0.12969667367384499</v>
+        <v>0.13</v>
       </c>
       <c r="Q14">
-        <v>0.253248996430744</v>
+        <v>0.25</v>
       </c>
       <c r="R14">
-        <v>0.15436780009434101</v>
+        <v>0.15</v>
       </c>
       <c r="S14">
-        <v>-5.2050331473304602E-2</v>
+        <v>-0.05</v>
       </c>
       <c r="T14">
-        <v>-0.25525262899965701</v>
+        <v>-0.26</v>
       </c>
       <c r="U14">
-        <v>-8.4099401081350403E-2</v>
+        <v>-0.08</v>
       </c>
       <c r="V14">
-        <v>0.25534953190195803</v>
+        <v>0.26</v>
       </c>
       <c r="W14">
-        <v>0.18720016365828299</v>
+        <v>0.19</v>
       </c>
       <c r="X14">
-        <v>0.12990651481382101</v>
+        <v>0.13</v>
       </c>
       <c r="Y14">
-        <v>0.131645162584591</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.2">
@@ -2029,76 +2043,76 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.20854415123223999</v>
+        <v>0.21</v>
       </c>
       <c r="C15">
-        <v>0.66293326910445305</v>
+        <v>0.66</v>
       </c>
       <c r="D15">
-        <v>0.53651405136781505</v>
+        <v>0.54</v>
       </c>
       <c r="E15">
-        <v>-0.49736554963780899</v>
+        <v>-0.5</v>
       </c>
       <c r="F15">
-        <v>-0.27511299653442101</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="G15">
-        <v>-0.53308293905283299</v>
+        <v>-0.53</v>
       </c>
       <c r="H15">
-        <v>-0.32004116466374799</v>
+        <v>-0.32</v>
       </c>
       <c r="I15">
-        <v>0.28532576281183097</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="J15">
-        <v>-0.31366328206570998</v>
+        <v>-0.31</v>
       </c>
       <c r="K15">
-        <v>-0.43453320767760101</v>
+        <v>-0.43</v>
       </c>
       <c r="L15">
-        <v>-0.27880829724711298</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="M15">
-        <v>0.43816271256725903</v>
+        <v>0.44</v>
       </c>
       <c r="N15">
-        <v>-0.37911464023036201</v>
+        <v>-0.38</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15">
-        <v>-0.131903353631841</v>
+        <v>-0.13</v>
       </c>
       <c r="Q15">
-        <v>0.39284810272238502</v>
+        <v>0.39</v>
       </c>
       <c r="R15">
-        <v>0.48350657528135499</v>
+        <v>0.48</v>
       </c>
       <c r="S15">
-        <v>-3.2001356095805E-3</v>
+        <v>0</v>
       </c>
       <c r="T15">
-        <v>-0.51904348835296199</v>
+        <v>-0.52</v>
       </c>
       <c r="U15">
-        <v>0.31896387173691498</v>
+        <v>0.32</v>
       </c>
       <c r="V15">
-        <v>0.49064107684043401</v>
+        <v>0.49</v>
       </c>
       <c r="W15">
-        <v>0.43988154029038001</v>
+        <v>0.44</v>
       </c>
       <c r="X15">
-        <v>0.57082438288790205</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="Y15">
-        <v>0.56463106760693504</v>
+        <v>0.56000000000000005</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.2">
@@ -2106,76 +2120,76 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>0.25534953190195803</v>
+        <v>0.26</v>
       </c>
       <c r="C16">
-        <v>0.48692365320178299</v>
+        <v>0.49</v>
       </c>
       <c r="D16">
-        <v>0.54774689811897104</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E16">
-        <v>-0.71967848203291696</v>
+        <v>-0.72</v>
       </c>
       <c r="F16">
-        <v>-0.45822971705104498</v>
+        <v>-0.46</v>
       </c>
       <c r="G16">
-        <v>-0.80576636133502899</v>
+        <v>-0.81</v>
       </c>
       <c r="H16">
-        <v>-0.35698087715946197</v>
+        <v>-0.36</v>
       </c>
       <c r="I16">
-        <v>0.147346554937308</v>
+        <v>0.15</v>
       </c>
       <c r="J16">
-        <v>-0.49308347359423998</v>
+        <v>-0.49</v>
       </c>
       <c r="K16">
-        <v>-0.64243870915129797</v>
+        <v>-0.64</v>
       </c>
       <c r="L16">
-        <v>-0.413621832519661</v>
+        <v>-0.41</v>
       </c>
       <c r="M16">
-        <v>0.39148272220415098</v>
+        <v>0.39</v>
       </c>
       <c r="N16">
-        <v>-0.56943527986745701</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="O16">
-        <v>0.49064107684043401</v>
+        <v>0.49</v>
       </c>
       <c r="P16">
-        <v>-0.19499010646734899</v>
+        <v>-0.19</v>
       </c>
       <c r="Q16">
-        <v>0.69742948402105098</v>
+        <v>0.7</v>
       </c>
       <c r="R16">
-        <v>0.65309455094873703</v>
+        <v>0.65</v>
       </c>
       <c r="S16">
-        <v>0.20025382489420801</v>
+        <v>0.2</v>
       </c>
       <c r="T16">
-        <v>-0.76741682491556495</v>
+        <v>-0.77</v>
       </c>
       <c r="U16">
-        <v>0.28418604224567301</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="V16">
         <v>1</v>
       </c>
       <c r="W16">
-        <v>0.62549050765979597</v>
+        <v>0.63</v>
       </c>
       <c r="X16">
-        <v>0.66067888893831905</v>
+        <v>0.66</v>
       </c>
       <c r="Y16">
-        <v>0.70802001180523899</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.2">
@@ -2183,76 +2197,76 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>0.16702493822662301</v>
+        <v>0.17</v>
       </c>
       <c r="C17">
-        <v>0.49124197075757597</v>
+        <v>0.49</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17">
-        <v>-0.34827918121590601</v>
+        <v>-0.35</v>
       </c>
       <c r="F17">
-        <v>-0.34643597211072302</v>
+        <v>-0.35</v>
       </c>
       <c r="G17">
-        <v>-0.47922548309854401</v>
+        <v>-0.48</v>
       </c>
       <c r="H17">
-        <v>-0.37820149579045798</v>
+        <v>-0.38</v>
       </c>
       <c r="I17">
-        <v>0.321107738430778</v>
+        <v>0.32</v>
       </c>
       <c r="J17">
-        <v>-0.187538908103275</v>
+        <v>-0.19</v>
       </c>
       <c r="K17">
-        <v>-0.28171643299473897</v>
+        <v>-0.28000000000000003</v>
       </c>
       <c r="L17">
-        <v>-0.24603471765416801</v>
+        <v>-0.25</v>
       </c>
       <c r="M17">
-        <v>0.47119783012611099</v>
+        <v>0.47</v>
       </c>
       <c r="N17">
-        <v>-0.23327237611771301</v>
+        <v>-0.23</v>
       </c>
       <c r="O17">
-        <v>0.53651405136781505</v>
+        <v>0.54</v>
       </c>
       <c r="P17">
-        <v>8.7269423987818495E-4</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0.43382283419324602</v>
+        <v>0.43</v>
       </c>
       <c r="R17">
-        <v>0.341298292991775</v>
+        <v>0.34</v>
       </c>
       <c r="S17">
-        <v>-8.62667307851748E-2</v>
+        <v>-0.09</v>
       </c>
       <c r="T17">
-        <v>-0.40349213561233599</v>
+        <v>-0.4</v>
       </c>
       <c r="U17">
-        <v>0.209312488753609</v>
+        <v>0.21</v>
       </c>
       <c r="V17">
-        <v>0.54774689811897104</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="W17">
-        <v>0.37874731010505902</v>
+        <v>0.38</v>
       </c>
       <c r="X17">
-        <v>0.398989833318389</v>
+        <v>0.4</v>
       </c>
       <c r="Y17">
-        <v>0.69326008164699104</v>
+        <v>0.69</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.2">
@@ -2260,73 +2274,73 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.131645162584591</v>
+        <v>0.13</v>
       </c>
       <c r="C18">
-        <v>0.47207462653162102</v>
+        <v>0.47</v>
       </c>
       <c r="D18">
-        <v>0.69326008164699104</v>
+        <v>0.69</v>
       </c>
       <c r="E18">
-        <v>-0.43119049252530101</v>
+        <v>-0.43</v>
       </c>
       <c r="F18">
-        <v>-0.36178491952368802</v>
+        <v>-0.36</v>
       </c>
       <c r="G18">
-        <v>-0.56965700276600595</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="H18">
-        <v>-0.405686684533208</v>
+        <v>-0.41</v>
       </c>
       <c r="I18">
-        <v>0.33828748955528798</v>
+        <v>0.34</v>
       </c>
       <c r="J18">
-        <v>-0.23823652925589001</v>
+        <v>-0.24</v>
       </c>
       <c r="K18">
-        <v>-0.352610392275859</v>
+        <v>-0.35</v>
       </c>
       <c r="L18">
-        <v>-0.30486649614506101</v>
+        <v>-0.3</v>
       </c>
       <c r="M18">
-        <v>0.35652514444014599</v>
+        <v>0.36</v>
       </c>
       <c r="N18">
-        <v>-0.29276015667306798</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="O18">
-        <v>0.56463106760693504</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="P18">
-        <v>-9.6876099324125897E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="Q18">
-        <v>0.50962656701750997</v>
+        <v>0.51</v>
       </c>
       <c r="R18">
-        <v>0.36657546256729601</v>
+        <v>0.37</v>
       </c>
       <c r="S18">
-        <v>-0.149646157071536</v>
+        <v>-0.15</v>
       </c>
       <c r="T18">
-        <v>-0.49022778421915802</v>
+        <v>-0.49</v>
       </c>
       <c r="U18">
-        <v>0.166681956918839</v>
+        <v>0.17</v>
       </c>
       <c r="V18">
-        <v>0.70802001180523899</v>
+        <v>0.71</v>
       </c>
       <c r="W18">
-        <v>0.47432052317680601</v>
+        <v>0.47</v>
       </c>
       <c r="X18">
-        <v>0.44427404196243198</v>
+        <v>0.44</v>
       </c>
       <c r="Y18">
         <v>1</v>
@@ -2337,76 +2351,76 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.18720016365828299</v>
+        <v>0.19</v>
       </c>
       <c r="C19">
-        <v>0.54559363325792798</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="D19">
-        <v>0.37874731010505902</v>
+        <v>0.38</v>
       </c>
       <c r="E19">
-        <v>-0.495386512768903</v>
+        <v>-0.5</v>
       </c>
       <c r="F19">
-        <v>-0.31830840319736697</v>
+        <v>-0.32</v>
       </c>
       <c r="G19">
-        <v>-0.52772866596680901</v>
+        <v>-0.53</v>
       </c>
       <c r="H19">
-        <v>-0.43227905556201701</v>
+        <v>-0.43</v>
       </c>
       <c r="I19">
-        <v>8.8929007369779305E-3</v>
+        <v>0.01</v>
       </c>
       <c r="J19">
-        <v>-0.30878361346556599</v>
+        <v>-0.31</v>
       </c>
       <c r="K19">
-        <v>-0.43393887444574902</v>
+        <v>-0.43</v>
       </c>
       <c r="L19">
-        <v>-0.481332843589097</v>
+        <v>-0.48</v>
       </c>
       <c r="M19">
-        <v>0.50702375478357398</v>
+        <v>0.51</v>
       </c>
       <c r="N19">
-        <v>-0.37844822248802901</v>
+        <v>-0.38</v>
       </c>
       <c r="O19">
-        <v>0.43988154029038001</v>
+        <v>0.44</v>
       </c>
       <c r="P19">
-        <v>-0.32966628554959498</v>
+        <v>-0.33</v>
       </c>
       <c r="Q19">
-        <v>0.77056175443883301</v>
+        <v>0.77</v>
       </c>
       <c r="R19">
-        <v>0.64871725747309095</v>
+        <v>0.65</v>
       </c>
       <c r="S19">
-        <v>0.41482088054599697</v>
+        <v>0.41</v>
       </c>
       <c r="T19">
-        <v>-0.514392273414498</v>
+        <v>-0.51</v>
       </c>
       <c r="U19">
-        <v>0.41390626312064299</v>
+        <v>0.41</v>
       </c>
       <c r="V19">
-        <v>0.62549050765979597</v>
+        <v>0.63</v>
       </c>
       <c r="W19">
         <v>1</v>
       </c>
       <c r="X19">
-        <v>0.64145684616271503</v>
+        <v>0.64</v>
       </c>
       <c r="Y19">
-        <v>0.47432052317680601</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.2">
@@ -2414,76 +2428,76 @@
         <v>11</v>
       </c>
       <c r="B20">
-        <v>6.9420236770968799E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C20">
-        <v>0.63367087694569002</v>
+        <v>0.63</v>
       </c>
       <c r="D20">
-        <v>0.47119783012611099</v>
+        <v>0.47</v>
       </c>
       <c r="E20">
-        <v>-0.25404281364226</v>
+        <v>-0.25</v>
       </c>
       <c r="F20">
-        <v>-0.31594994230553602</v>
+        <v>-0.32</v>
       </c>
       <c r="G20">
-        <v>-0.28670139779627002</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="H20">
-        <v>-0.45554006806391401</v>
+        <v>-0.46</v>
       </c>
       <c r="I20">
-        <v>6.9107396346602901E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J20">
-        <v>-0.19051915749242901</v>
+        <v>-0.19</v>
       </c>
       <c r="K20">
-        <v>-0.23769977857726099</v>
+        <v>-0.24</v>
       </c>
       <c r="L20">
-        <v>-0.380627370092192</v>
+        <v>-0.38</v>
       </c>
       <c r="M20">
         <v>1</v>
       </c>
       <c r="N20">
-        <v>-0.21270759086624599</v>
+        <v>-0.21</v>
       </c>
       <c r="O20">
-        <v>0.43816271256725903</v>
+        <v>0.44</v>
       </c>
       <c r="P20">
-        <v>-0.24989733778723699</v>
+        <v>-0.25</v>
       </c>
       <c r="Q20">
-        <v>0.49952745232561702</v>
+        <v>0.5</v>
       </c>
       <c r="R20">
-        <v>0.51023249208752097</v>
+        <v>0.51</v>
       </c>
       <c r="S20">
-        <v>0.136080013837452</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T20">
-        <v>-0.26844614383146498</v>
+        <v>-0.27</v>
       </c>
       <c r="U20">
-        <v>0.358945124941284</v>
+        <v>0.36</v>
       </c>
       <c r="V20">
-        <v>0.39148272220415098</v>
+        <v>0.39</v>
       </c>
       <c r="W20">
-        <v>0.50702375478357398</v>
+        <v>0.51</v>
       </c>
       <c r="X20">
-        <v>0.55697548252982199</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="Y20">
-        <v>0.35652514444014599</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.2">
@@ -2491,76 +2505,76 @@
         <v>16</v>
       </c>
       <c r="B21">
-        <v>0.15436780009434101</v>
+        <v>0.15</v>
       </c>
       <c r="C21">
-        <v>0.77996947811338502</v>
+        <v>0.78</v>
       </c>
       <c r="D21">
-        <v>0.341298292991775</v>
+        <v>0.34</v>
       </c>
       <c r="E21">
-        <v>-0.74047525796109404</v>
+        <v>-0.74</v>
       </c>
       <c r="F21">
-        <v>-0.22932885687519999</v>
+        <v>-0.23</v>
       </c>
       <c r="G21">
-        <v>-0.669523198834863</v>
+        <v>-0.67</v>
       </c>
       <c r="H21">
-        <v>-0.47860949528805302</v>
+        <v>-0.48</v>
       </c>
       <c r="I21">
-        <v>9.1437267544194706E-2</v>
+        <v>0.09</v>
       </c>
       <c r="J21">
-        <v>-0.59484069511568105</v>
+        <v>-0.59</v>
       </c>
       <c r="K21">
-        <v>-0.71832064713045896</v>
+        <v>-0.72</v>
       </c>
       <c r="L21">
-        <v>-0.65131533009572595</v>
+        <v>-0.65</v>
       </c>
       <c r="M21">
-        <v>0.51023249208752097</v>
+        <v>0.51</v>
       </c>
       <c r="N21">
-        <v>-0.67880590059521195</v>
+        <v>-0.68</v>
       </c>
       <c r="O21">
-        <v>0.48350657528135499</v>
+        <v>0.48</v>
       </c>
       <c r="P21">
-        <v>-0.22182179909495001</v>
+        <v>-0.22</v>
       </c>
       <c r="Q21">
-        <v>0.75332816249425205</v>
+        <v>0.75</v>
       </c>
       <c r="R21">
         <v>1</v>
       </c>
       <c r="S21">
-        <v>0.36916136110221698</v>
+        <v>0.37</v>
       </c>
       <c r="T21">
-        <v>-0.73070909496857595</v>
+        <v>-0.73</v>
       </c>
       <c r="U21">
-        <v>0.580131576671573</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V21">
-        <v>0.65309455094873703</v>
+        <v>0.65</v>
       </c>
       <c r="W21">
-        <v>0.64871725747309095</v>
+        <v>0.65</v>
       </c>
       <c r="X21">
-        <v>0.91381620086634996</v>
+        <v>0.91</v>
       </c>
       <c r="Y21">
-        <v>0.36657546256729601</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.2">
@@ -2568,76 +2582,76 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.12990651481382101</v>
+        <v>0.13</v>
       </c>
       <c r="C22">
-        <v>0.87874088354356605</v>
+        <v>0.88</v>
       </c>
       <c r="D22">
-        <v>0.398989833318389</v>
+        <v>0.4</v>
       </c>
       <c r="E22">
-        <v>-0.71496911101835303</v>
+        <v>-0.71</v>
       </c>
       <c r="F22">
-        <v>-0.24534566003244801</v>
+        <v>-0.25</v>
       </c>
       <c r="G22">
-        <v>-0.66585485228730501</v>
+        <v>-0.67</v>
       </c>
       <c r="H22">
-        <v>-0.52140774336281703</v>
+        <v>-0.52</v>
       </c>
       <c r="I22">
-        <v>0.126102659089673</v>
+        <v>0.13</v>
       </c>
       <c r="J22">
-        <v>-0.56205603049834896</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="K22">
-        <v>-0.68591738443817596</v>
+        <v>-0.69</v>
       </c>
       <c r="L22">
-        <v>-0.57299241119083499</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="M22">
-        <v>0.55697548252982199</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="N22">
-        <v>-0.64194198863209095</v>
+        <v>-0.64</v>
       </c>
       <c r="O22">
-        <v>0.57082438288790205</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="P22">
-        <v>-0.198607464874034</v>
+        <v>-0.2</v>
       </c>
       <c r="Q22">
-        <v>0.70606975620000301</v>
+        <v>0.71</v>
       </c>
       <c r="R22">
-        <v>0.91381620086634996</v>
+        <v>0.91</v>
       </c>
       <c r="S22">
-        <v>0.22272432913929499</v>
+        <v>0.22</v>
       </c>
       <c r="T22">
-        <v>-0.71160420351439502</v>
+        <v>-0.71</v>
       </c>
       <c r="U22">
-        <v>0.62290171441434805</v>
+        <v>0.62</v>
       </c>
       <c r="V22">
-        <v>0.66067888893831905</v>
+        <v>0.66</v>
       </c>
       <c r="W22">
-        <v>0.64145684616271503</v>
+        <v>0.64</v>
       </c>
       <c r="X22">
         <v>1</v>
       </c>
       <c r="Y22">
-        <v>0.44427404196243198</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.2">
@@ -2645,76 +2659,76 @@
         <v>15</v>
       </c>
       <c r="B23">
-        <v>0.253248996430744</v>
+        <v>0.25</v>
       </c>
       <c r="C23">
-        <v>0.64221046361577705</v>
+        <v>0.64</v>
       </c>
       <c r="D23">
-        <v>0.43382283419324602</v>
+        <v>0.43</v>
       </c>
       <c r="E23">
-        <v>-0.54495032902343099</v>
+        <v>-0.54</v>
       </c>
       <c r="F23">
-        <v>-0.46192462403573797</v>
+        <v>-0.46</v>
       </c>
       <c r="G23">
-        <v>-0.65502987263408696</v>
+        <v>-0.66</v>
       </c>
       <c r="H23">
-        <v>-0.585679834940523</v>
+        <v>-0.59</v>
       </c>
       <c r="I23">
-        <v>0.116812814576487</v>
+        <v>0.12</v>
       </c>
       <c r="J23">
-        <v>-0.28835565341112102</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="K23">
-        <v>-0.447008339855411</v>
+        <v>-0.45</v>
       </c>
       <c r="L23">
-        <v>-0.67392895873879799</v>
+        <v>-0.67</v>
       </c>
       <c r="M23">
-        <v>0.49952745232561702</v>
+        <v>0.5</v>
       </c>
       <c r="N23">
-        <v>-0.37876968234668801</v>
+        <v>-0.38</v>
       </c>
       <c r="O23">
-        <v>0.39284810272238502</v>
+        <v>0.39</v>
       </c>
       <c r="P23">
-        <v>-0.22980563937635901</v>
+        <v>-0.23</v>
       </c>
       <c r="Q23">
         <v>1</v>
       </c>
       <c r="R23">
-        <v>0.75332816249425205</v>
+        <v>0.75</v>
       </c>
       <c r="S23">
-        <v>0.32494249100953698</v>
+        <v>0.32</v>
       </c>
       <c r="T23">
-        <v>-0.59376509985489401</v>
+        <v>-0.59</v>
       </c>
       <c r="U23">
-        <v>0.58411885753070403</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="V23">
-        <v>0.69742948402105098</v>
+        <v>0.7</v>
       </c>
       <c r="W23">
-        <v>0.77056175443883301</v>
+        <v>0.77</v>
       </c>
       <c r="X23">
-        <v>0.70606975620000301</v>
+        <v>0.71</v>
       </c>
       <c r="Y23">
-        <v>0.50962656701750997</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.2">
@@ -2722,76 +2736,76 @@
         <v>19</v>
       </c>
       <c r="B24">
-        <v>-8.4099401081350403E-2</v>
+        <v>-0.08</v>
       </c>
       <c r="C24">
-        <v>0.66188093536807102</v>
+        <v>0.66</v>
       </c>
       <c r="D24">
-        <v>0.209312488753609</v>
+        <v>0.21</v>
       </c>
       <c r="E24">
-        <v>-0.41147588842621202</v>
+        <v>-0.41</v>
       </c>
       <c r="F24">
-        <v>-0.14286651858681901</v>
+        <v>-0.14000000000000001</v>
       </c>
       <c r="G24">
-        <v>-0.43158579569746103</v>
+        <v>-0.43</v>
       </c>
       <c r="H24">
-        <v>-0.59218489912085304</v>
+        <v>-0.59</v>
       </c>
       <c r="I24">
-        <v>-8.3244842872646999E-3</v>
+        <v>-0.01</v>
       </c>
       <c r="J24">
-        <v>-0.237095252947398</v>
+        <v>-0.24</v>
       </c>
       <c r="K24">
-        <v>-0.351018362086221</v>
+        <v>-0.35</v>
       </c>
       <c r="L24">
-        <v>-0.37595865021394198</v>
+        <v>-0.38</v>
       </c>
       <c r="M24">
-        <v>0.358945124941284</v>
+        <v>0.36</v>
       </c>
       <c r="N24">
-        <v>-0.30215262492421202</v>
+        <v>-0.3</v>
       </c>
       <c r="O24">
-        <v>0.31896387173691498</v>
+        <v>0.32</v>
       </c>
       <c r="P24">
-        <v>-0.24868071554201099</v>
+        <v>-0.25</v>
       </c>
       <c r="Q24">
-        <v>0.58411885753070403</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="R24">
-        <v>0.580131576671573</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="S24">
-        <v>8.0286744874862898E-2</v>
+        <v>0.08</v>
       </c>
       <c r="T24">
-        <v>-0.42378188948332601</v>
+        <v>-0.42</v>
       </c>
       <c r="U24">
         <v>1</v>
       </c>
       <c r="V24">
-        <v>0.28418604224567301</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="W24">
-        <v>0.41390626312064299</v>
+        <v>0.41</v>
       </c>
       <c r="X24">
-        <v>0.62290171441434805</v>
+        <v>0.62</v>
       </c>
       <c r="Y24">
-        <v>0.166681956918839</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.2">
@@ -2799,76 +2813,76 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>9.9561851946755098E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25">
-        <v>0.49124197075757597</v>
+        <v>0.49</v>
       </c>
       <c r="E25">
-        <v>-0.56828337711872201</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="F25">
-        <v>-0.25852588534544502</v>
+        <v>-0.26</v>
       </c>
       <c r="G25">
-        <v>-0.54990538185721705</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="H25">
-        <v>-0.61952457365500901</v>
+        <v>-0.62</v>
       </c>
       <c r="I25">
-        <v>0.154106131983795</v>
+        <v>0.15</v>
       </c>
       <c r="J25">
-        <v>-0.411131520020942</v>
+        <v>-0.41</v>
       </c>
       <c r="K25">
-        <v>-0.52828687743247704</v>
+        <v>-0.53</v>
       </c>
       <c r="L25">
-        <v>-0.48876952340738999</v>
+        <v>-0.49</v>
       </c>
       <c r="M25">
-        <v>0.63367087694569002</v>
+        <v>0.63</v>
       </c>
       <c r="N25">
-        <v>-0.48435291511367101</v>
+        <v>-0.48</v>
       </c>
       <c r="O25">
-        <v>0.66293326910445305</v>
+        <v>0.66</v>
       </c>
       <c r="P25">
-        <v>-0.233595941390323</v>
+        <v>-0.23</v>
       </c>
       <c r="Q25">
-        <v>0.64221046361577705</v>
+        <v>0.64</v>
       </c>
       <c r="R25">
-        <v>0.77996947811338502</v>
+        <v>0.78</v>
       </c>
       <c r="S25">
-        <v>7.3174070735967198E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="T25">
-        <v>-0.57067837700803703</v>
+        <v>-0.56999999999999995</v>
       </c>
       <c r="U25">
-        <v>0.66188093536807102</v>
+        <v>0.66</v>
       </c>
       <c r="V25">
-        <v>0.48692365320178299</v>
+        <v>0.49</v>
       </c>
       <c r="W25">
-        <v>0.54559363325792798</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="X25">
-        <v>0.87874088354356605</v>
+        <v>0.88</v>
       </c>
       <c r="Y25">
-        <v>0.47207462653162102</v>
+        <v>0.47</v>
       </c>
     </row>
   </sheetData>
@@ -2888,6 +2902,5 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/reports/figures/edacorr.xlsx
+++ b/reports/figures/edacorr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asadsabir/Documents/GitHub/World Bank Gini Index/reports/figures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{EF78EF4F-F1F1-904B-9C5F-C3F3565C37B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C41B3E-BD5E-254C-843F-8FD6A418F5A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="edacorr" sheetId="1" r:id="rId1"/>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -951,16 +951,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="42.33203125" customWidth="1"/>
+    <col min="18" max="18" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.2">
